--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.528161333333333</v>
+        <v>2.738607</v>
       </c>
       <c r="H2">
-        <v>13.584484</v>
+        <v>8.215821</v>
       </c>
       <c r="I2">
-        <v>0.3225352762763812</v>
+        <v>0.2235648590725649</v>
       </c>
       <c r="J2">
-        <v>0.3225352762763812</v>
+        <v>0.223564859072565</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.102580333333333</v>
+        <v>0.5942546666666666</v>
       </c>
       <c r="N2">
-        <v>3.307741</v>
+        <v>1.782764</v>
       </c>
       <c r="O2">
-        <v>0.3703441503267132</v>
+        <v>0.2407008061506589</v>
       </c>
       <c r="P2">
-        <v>0.3703441503267133</v>
+        <v>0.2407008061506589</v>
       </c>
       <c r="Q2">
-        <v>4.992661632293777</v>
+        <v>1.627429989916</v>
       </c>
       <c r="R2">
-        <v>44.933954690644</v>
+        <v>14.646869909244</v>
       </c>
       <c r="S2">
-        <v>0.1194490528429681</v>
+        <v>0.05381224180572483</v>
       </c>
       <c r="T2">
-        <v>0.1194490528429681</v>
+        <v>0.05381224180572484</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.528161333333333</v>
+        <v>2.738607</v>
       </c>
       <c r="H3">
-        <v>13.584484</v>
+        <v>8.215821</v>
       </c>
       <c r="I3">
-        <v>0.3225352762763812</v>
+        <v>0.2235648590725649</v>
       </c>
       <c r="J3">
-        <v>0.3225352762763812</v>
+        <v>0.223564859072565</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.602295</v>
       </c>
       <c r="O3">
-        <v>0.4033232592881871</v>
+        <v>0.4863657278767622</v>
       </c>
       <c r="P3">
-        <v>0.4033232592881872</v>
+        <v>0.4863657278767622</v>
       </c>
       <c r="Q3">
-        <v>5.437257643420001</v>
+        <v>3.288423434355</v>
       </c>
       <c r="R3">
-        <v>48.93531879078</v>
+        <v>29.595810909195</v>
       </c>
       <c r="S3">
-        <v>0.130085978863206</v>
+        <v>0.1087342854104938</v>
       </c>
       <c r="T3">
-        <v>0.130085978863206</v>
+        <v>0.1087342854104938</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.528161333333333</v>
+        <v>2.738607</v>
       </c>
       <c r="H4">
-        <v>13.584484</v>
+        <v>8.215821</v>
       </c>
       <c r="I4">
-        <v>0.3225352762763812</v>
+        <v>0.2235648590725649</v>
       </c>
       <c r="J4">
-        <v>0.3225352762763812</v>
+        <v>0.223564859072565</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.021497</v>
       </c>
       <c r="O4">
-        <v>0.2263325903850996</v>
+        <v>0.2729334659725789</v>
       </c>
       <c r="P4">
-        <v>0.2263325903850996</v>
+        <v>0.2729334659725789</v>
       </c>
       <c r="Q4">
-        <v>3.051221516949778</v>
+        <v>1.845361944893</v>
       </c>
       <c r="R4">
-        <v>27.460993652548</v>
+        <v>16.608257504037</v>
       </c>
       <c r="S4">
-        <v>0.07300024457020714</v>
+        <v>0.06101833185634629</v>
       </c>
       <c r="T4">
-        <v>0.07300024457020714</v>
+        <v>0.0610183318563463</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>18.812855</v>
       </c>
       <c r="I5">
-        <v>0.4466720550425397</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="J5">
-        <v>0.4466720550425397</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.102580333333333</v>
+        <v>0.5942546666666666</v>
       </c>
       <c r="N5">
-        <v>3.307741</v>
+        <v>1.782764</v>
       </c>
       <c r="O5">
-        <v>0.3703441503267132</v>
+        <v>0.2407008061506589</v>
       </c>
       <c r="P5">
-        <v>0.3703441503267133</v>
+        <v>0.2407008061506589</v>
       </c>
       <c r="Q5">
-        <v>6.914227978950555</v>
+        <v>3.726542292357777</v>
       </c>
       <c r="R5">
-        <v>62.22805181055499</v>
+        <v>33.53888063122</v>
       </c>
       <c r="S5">
-        <v>0.1654223826994162</v>
+        <v>0.1232210271275432</v>
       </c>
       <c r="T5">
-        <v>0.1654223826994163</v>
+        <v>0.1232210271275432</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>18.812855</v>
       </c>
       <c r="I6">
-        <v>0.4466720550425397</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="J6">
-        <v>0.4466720550425397</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.602295</v>
       </c>
       <c r="O6">
-        <v>0.4033232592881871</v>
+        <v>0.4863657278767622</v>
       </c>
       <c r="P6">
-        <v>0.4033232592881872</v>
+        <v>0.4863657278767622</v>
       </c>
       <c r="Q6">
         <v>7.529939278025</v>
@@ -818,10 +818,10 @@
         <v>67.76945350222501</v>
       </c>
       <c r="S6">
-        <v>0.1801532290727096</v>
+        <v>0.2489833146262845</v>
       </c>
       <c r="T6">
-        <v>0.1801532290727097</v>
+        <v>0.2489833146262845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>18.812855</v>
       </c>
       <c r="I7">
-        <v>0.4466720550425397</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="J7">
-        <v>0.4466720550425397</v>
+        <v>0.5119261090069511</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.021497</v>
       </c>
       <c r="O7">
-        <v>0.2263325903850996</v>
+        <v>0.2729334659725789</v>
       </c>
       <c r="P7">
-        <v>0.2263325903850996</v>
+        <v>0.2729334659725789</v>
       </c>
       <c r="Q7">
         <v>4.225569993770556</v>
@@ -880,10 +880,10 @@
         <v>38.030129943935</v>
       </c>
       <c r="S7">
-        <v>0.1010964432704138</v>
+        <v>0.1397217672531234</v>
       </c>
       <c r="T7">
-        <v>0.1010964432704138</v>
+        <v>0.1397217672531234</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>9.720485</v>
       </c>
       <c r="I8">
-        <v>0.2307926686810791</v>
+        <v>0.2645090319204839</v>
       </c>
       <c r="J8">
-        <v>0.2307926686810791</v>
+        <v>0.2645090319204839</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.102580333333333</v>
+        <v>0.5942546666666666</v>
       </c>
       <c r="N8">
-        <v>3.307741</v>
+        <v>1.782764</v>
       </c>
       <c r="O8">
-        <v>0.3703441503267132</v>
+        <v>0.2407008061506589</v>
       </c>
       <c r="P8">
-        <v>0.3703441503267133</v>
+        <v>0.2407008061506589</v>
       </c>
       <c r="Q8">
-        <v>3.572538530487222</v>
+        <v>1.925481191171111</v>
       </c>
       <c r="R8">
-        <v>32.152846774385</v>
+        <v>17.32933072054</v>
       </c>
       <c r="S8">
-        <v>0.08547271478432887</v>
+        <v>0.06366753721739084</v>
       </c>
       <c r="T8">
-        <v>0.08547271478432887</v>
+        <v>0.06366753721739084</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>9.720485</v>
       </c>
       <c r="I9">
-        <v>0.2307926686810791</v>
+        <v>0.2645090319204839</v>
       </c>
       <c r="J9">
-        <v>0.2307926686810791</v>
+        <v>0.2645090319204839</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>3.602295</v>
       </c>
       <c r="O9">
-        <v>0.4033232592881871</v>
+        <v>0.4863657278767622</v>
       </c>
       <c r="P9">
-        <v>0.4033232592881872</v>
+        <v>0.4863657278767622</v>
       </c>
       <c r="Q9">
         <v>3.890672723675</v>
@@ -1004,10 +1004,10 @@
         <v>35.01605451307501</v>
       </c>
       <c r="S9">
-        <v>0.09308405135227153</v>
+        <v>0.1286481278399839</v>
       </c>
       <c r="T9">
-        <v>0.09308405135227153</v>
+        <v>0.1286481278399839</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>9.720485</v>
       </c>
       <c r="I10">
-        <v>0.2307926686810791</v>
+        <v>0.2645090319204839</v>
       </c>
       <c r="J10">
-        <v>0.2307926686810791</v>
+        <v>0.2645090319204839</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>2.021497</v>
       </c>
       <c r="O10">
-        <v>0.2263325903850996</v>
+        <v>0.2729334659725789</v>
       </c>
       <c r="P10">
-        <v>0.2263325903850996</v>
+        <v>0.2729334659725789</v>
       </c>
       <c r="Q10">
         <v>2.183325696227223</v>
@@ -1066,10 +1066,10 @@
         <v>19.649931266045</v>
       </c>
       <c r="S10">
-        <v>0.05223590254447869</v>
+        <v>0.07219336686310916</v>
       </c>
       <c r="T10">
-        <v>0.05223590254447869</v>
+        <v>0.07219336686310916</v>
       </c>
     </row>
   </sheetData>
